--- a/REGULAR/OJT/NEW DONE/BAYBAY MARCELO.xlsx
+++ b/REGULAR/OJT/NEW DONE/BAYBAY MARCELO.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB50CC4-2706-44D5-9C15-09196635162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
   <si>
     <t>PERIOD</t>
   </si>
@@ -413,18 +411,33 @@
   <si>
     <t>CL (5-0-0)</t>
   </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,6 +806,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -829,9 +845,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,7 +873,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -877,7 +890,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -892,7 +905,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -934,7 +947,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -994,7 +1007,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1007,7 +1020,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1022,7 +1035,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1040,7 +1053,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1057,7 +1070,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1076,7 +1089,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1093,7 +1106,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1109,7 +1122,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1126,7 +1139,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1145,7 +1158,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1162,7 +1175,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1178,7 +1191,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1235,7 +1248,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1280,7 +1293,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1336,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1400,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1460,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1526,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1589,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1687,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1746,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1811,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1854,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1929,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2115,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2181,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2239,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2305,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2361,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2436,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2479,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2545,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2601,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2699,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2749,7 +2762,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2811,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2815,25 +2828,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K353" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K471" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2845,13 +2858,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2860,14 +2873,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2918,7 +2931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2970,7 +2983,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3164,14 +3177,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3181,7 +3194,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3189,19 +3202,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K353"/>
+  <dimension ref="A2:K471"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A339" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C351" sqref="C351"/>
+      <pane ySplit="1884" topLeftCell="A340" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -3216,64 +3229,64 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3281,7 +3294,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3294,24 +3307,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3346,7 +3359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3354,8 +3367,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>155.68899999999999</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>186.93899999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3364,13 +3377,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>242.083</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>293.33299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3392,27 +3405,28 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>35217</v>
+        <v>35233</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>0.58299999999999996</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <f>EDATE(A11,1)</f>
         <v>35247</v>
       </c>
       <c r="B12" s="20"/>
@@ -3431,9 +3445,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <f t="shared" ref="A13:A17" si="0">EDATE(A12,1)</f>
         <v>35278</v>
       </c>
       <c r="B13" s="20"/>
@@ -3452,9 +3465,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <f t="shared" si="0"/>
         <v>35309</v>
       </c>
       <c r="B14" s="20"/>
@@ -3473,9 +3485,8 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <f t="shared" si="0"/>
         <v>35339</v>
       </c>
       <c r="B15" s="20"/>
@@ -3494,9 +3505,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <f t="shared" si="0"/>
         <v>35370</v>
       </c>
       <c r="B16" s="15"/>
@@ -3515,9 +3525,8 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <f t="shared" si="0"/>
         <v>35400</v>
       </c>
       <c r="B17" s="20"/>
@@ -3536,7 +3545,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -3554,7 +3563,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35431</v>
       </c>
@@ -3574,7 +3583,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35462</v>
@@ -3595,9 +3604,9 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <f t="shared" ref="A21:A30" si="1">EDATE(A20,1)</f>
+        <f t="shared" ref="A21:A30" si="0">EDATE(A20,1)</f>
         <v>35490</v>
       </c>
       <c r="B21" s="20"/>
@@ -3616,9 +3625,9 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35521</v>
       </c>
       <c r="B22" s="20"/>
@@ -3637,9 +3646,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35551</v>
       </c>
       <c r="B23" s="20"/>
@@ -3658,9 +3667,9 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35582</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -3685,9 +3694,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35612</v>
       </c>
       <c r="B25" s="20"/>
@@ -3706,9 +3715,9 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35643</v>
       </c>
       <c r="B26" s="20"/>
@@ -3727,9 +3736,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35674</v>
       </c>
       <c r="B27" s="20"/>
@@ -3748,9 +3757,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35704</v>
       </c>
       <c r="B28" s="20"/>
@@ -3769,7 +3778,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35735</v>
@@ -3790,9 +3799,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35765</v>
       </c>
       <c r="B30" s="20"/>
@@ -3811,7 +3820,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>47</v>
       </c>
@@ -3829,7 +3838,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>35796</v>
       </c>
@@ -3849,7 +3858,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>35827</v>
@@ -3870,9 +3879,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <f t="shared" ref="A34:A44" si="2">EDATE(A33,1)</f>
+        <f t="shared" ref="A34:A44" si="1">EDATE(A33,1)</f>
         <v>35855</v>
       </c>
       <c r="B34" s="20"/>
@@ -3891,9 +3900,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35886</v>
       </c>
       <c r="B35" s="20"/>
@@ -3912,9 +3921,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35916</v>
       </c>
       <c r="B36" s="20"/>
@@ -3933,9 +3942,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35947</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -3960,9 +3969,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35977</v>
       </c>
       <c r="B38" s="20"/>
@@ -3981,9 +3990,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36008</v>
       </c>
       <c r="B39" s="20"/>
@@ -4002,7 +4011,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>50</v>
@@ -4022,7 +4031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>48</v>
@@ -4044,7 +4053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36039</v>
@@ -4065,9 +4074,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36069</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -4092,9 +4101,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36100</v>
       </c>
       <c r="B44" s="20"/>
@@ -4113,7 +4122,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A44,1)</f>
         <v>36130</v>
@@ -4134,7 +4143,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>54</v>
       </c>
@@ -4152,7 +4161,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36161</v>
       </c>
@@ -4176,7 +4185,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4194,7 +4203,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36192</v>
@@ -4215,9 +4224,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <f t="shared" ref="A50:A60" si="3">EDATE(A49,1)</f>
+        <f t="shared" ref="A50:A60" si="2">EDATE(A49,1)</f>
         <v>36220</v>
       </c>
       <c r="B50" s="20"/>
@@ -4236,9 +4245,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36251</v>
       </c>
       <c r="B51" s="20"/>
@@ -4257,9 +4266,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36281</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -4282,7 +4291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4300,7 +4309,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36312</v>
@@ -4321,9 +4330,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36342</v>
       </c>
       <c r="B55" s="20"/>
@@ -4342,9 +4351,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36373</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -4367,7 +4376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4385,7 +4394,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36404</v>
@@ -4406,9 +4415,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36434</v>
       </c>
       <c r="B59" s="20"/>
@@ -4427,9 +4436,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36465</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -4452,7 +4461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4470,7 +4479,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f>EDATE(A60,1)</f>
         <v>36495</v>
@@ -4491,7 +4500,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>60</v>
       </c>
@@ -4509,7 +4518,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36526</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4549,7 +4558,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36557</v>
@@ -4570,9 +4579,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <f t="shared" ref="A67:A76" si="4">EDATE(A66,1)</f>
+        <f t="shared" ref="A67:A76" si="3">EDATE(A66,1)</f>
         <v>36586</v>
       </c>
       <c r="B67" s="20"/>
@@ -4591,9 +4600,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36617</v>
       </c>
       <c r="B68" s="20"/>
@@ -4612,9 +4621,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36647</v>
       </c>
       <c r="B69" s="20"/>
@@ -4633,9 +4642,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36678</v>
       </c>
       <c r="B70" s="20"/>
@@ -4654,9 +4663,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36708</v>
       </c>
       <c r="B71" s="20"/>
@@ -4675,9 +4684,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36739</v>
       </c>
       <c r="B72" s="20"/>
@@ -4696,9 +4705,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36770</v>
       </c>
       <c r="B73" s="20"/>
@@ -4717,9 +4726,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36800</v>
       </c>
       <c r="B74" s="20"/>
@@ -4738,9 +4747,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36831</v>
       </c>
       <c r="B75" s="20"/>
@@ -4759,9 +4768,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36861</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -4784,7 +4793,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
         <v>63</v>
       </c>
@@ -4802,7 +4811,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>36892</v>
       </c>
@@ -4822,7 +4831,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A78,1)</f>
         <v>36923</v>
@@ -4847,7 +4856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4865,7 +4874,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>36951</v>
@@ -4886,9 +4895,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <f t="shared" ref="A82:A91" si="5">EDATE(A81,1)</f>
+        <f t="shared" ref="A82:A91" si="4">EDATE(A81,1)</f>
         <v>36982</v>
       </c>
       <c r="B82" s="20"/>
@@ -4907,9 +4916,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37012</v>
       </c>
       <c r="B83" s="20"/>
@@ -4928,9 +4937,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37043</v>
       </c>
       <c r="B84" s="20"/>
@@ -4949,9 +4958,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37073</v>
       </c>
       <c r="B85" s="20"/>
@@ -4970,9 +4979,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37104</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -4995,7 +5004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5013,7 +5022,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>37135</v>
@@ -5034,9 +5043,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37165</v>
       </c>
       <c r="B89" s="20"/>
@@ -5055,9 +5064,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37196</v>
       </c>
       <c r="B90" s="20"/>
@@ -5076,9 +5085,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37226</v>
       </c>
       <c r="B91" s="20"/>
@@ -5097,7 +5106,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>67</v>
       </c>
@@ -5115,7 +5124,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37257</v>
       </c>
@@ -5135,7 +5144,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>37288</v>
@@ -5160,7 +5169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5178,7 +5187,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>37316</v>
@@ -5199,9 +5208,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <f t="shared" ref="A97:A105" si="6">EDATE(A96,1)</f>
+        <f t="shared" ref="A97:A105" si="5">EDATE(A96,1)</f>
         <v>37347</v>
       </c>
       <c r="B97" s="20"/>
@@ -5220,9 +5229,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37377</v>
       </c>
       <c r="B98" s="20"/>
@@ -5241,9 +5250,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37408</v>
       </c>
       <c r="B99" s="20"/>
@@ -5262,9 +5271,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37438</v>
       </c>
       <c r="B100" s="20"/>
@@ -5283,9 +5292,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37469</v>
       </c>
       <c r="B101" s="20"/>
@@ -5304,9 +5313,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37500</v>
       </c>
       <c r="B102" s="20"/>
@@ -5325,7 +5334,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>37530</v>
@@ -5346,9 +5355,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37561</v>
       </c>
       <c r="B104" s="20"/>
@@ -5367,9 +5376,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37591</v>
       </c>
       <c r="B105" s="20" t="s">
@@ -5392,7 +5401,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>70</v>
       </c>
@@ -5410,7 +5419,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37622</v>
       </c>
@@ -5434,7 +5443,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5452,7 +5461,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f>EDATE(A107,1)</f>
         <v>37653</v>
@@ -5473,9 +5482,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <f t="shared" ref="A110:A120" si="7">EDATE(A109,1)</f>
+        <f t="shared" ref="A110:A120" si="6">EDATE(A109,1)</f>
         <v>37681</v>
       </c>
       <c r="B110" s="20"/>
@@ -5494,9 +5503,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37712</v>
       </c>
       <c r="B111" s="20" t="s">
@@ -5519,7 +5528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5537,7 +5546,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>37742</v>
@@ -5558,9 +5567,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37773</v>
       </c>
       <c r="B114" s="20"/>
@@ -5579,9 +5588,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37803</v>
       </c>
       <c r="B115" s="20"/>
@@ -5600,9 +5609,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37834</v>
       </c>
       <c r="B116" s="20"/>
@@ -5621,9 +5630,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37865</v>
       </c>
       <c r="B117" s="20"/>
@@ -5642,9 +5651,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37895</v>
       </c>
       <c r="B118" s="20"/>
@@ -5663,9 +5672,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37926</v>
       </c>
       <c r="B119" s="20"/>
@@ -5684,9 +5693,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37956</v>
       </c>
       <c r="B120" s="20"/>
@@ -5705,7 +5714,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>74</v>
       </c>
@@ -5723,7 +5732,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37987</v>
       </c>
@@ -5743,7 +5752,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A122,1)</f>
         <v>38018</v>
@@ -5764,9 +5773,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <f t="shared" ref="A124:A134" si="8">EDATE(A123,1)</f>
+        <f t="shared" ref="A124:A134" si="7">EDATE(A123,1)</f>
         <v>38047</v>
       </c>
       <c r="B124" s="20" t="s">
@@ -5789,7 +5798,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -5807,7 +5816,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>38078</v>
@@ -5828,9 +5837,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38108</v>
       </c>
       <c r="B127" s="20"/>
@@ -5849,9 +5858,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38139</v>
       </c>
       <c r="B128" s="20"/>
@@ -5870,9 +5879,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38169</v>
       </c>
       <c r="B129" s="20"/>
@@ -5891,9 +5900,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38200</v>
       </c>
       <c r="B130" s="20" t="s">
@@ -5916,9 +5925,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38231</v>
       </c>
       <c r="B131" s="20"/>
@@ -5937,9 +5946,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38261</v>
       </c>
       <c r="B132" s="20"/>
@@ -5958,9 +5967,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38292</v>
       </c>
       <c r="B133" s="20"/>
@@ -5979,9 +5988,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38322</v>
       </c>
       <c r="B134" s="20"/>
@@ -6000,7 +6009,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>77</v>
       </c>
@@ -6018,7 +6027,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38353</v>
       </c>
@@ -6038,7 +6047,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A136,1)</f>
         <v>38384</v>
@@ -6059,9 +6068,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <f t="shared" ref="A138:A147" si="9">EDATE(A137,1)</f>
+        <f t="shared" ref="A138:A147" si="8">EDATE(A137,1)</f>
         <v>38412</v>
       </c>
       <c r="B138" s="20"/>
@@ -6080,9 +6089,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38443</v>
       </c>
       <c r="B139" s="20"/>
@@ -6101,9 +6110,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38473</v>
       </c>
       <c r="B140" s="20"/>
@@ -6122,9 +6131,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38504</v>
       </c>
       <c r="B141" s="20"/>
@@ -6143,9 +6152,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38534</v>
       </c>
       <c r="B142" s="20"/>
@@ -6164,9 +6173,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38565</v>
       </c>
       <c r="B143" s="15"/>
@@ -6185,9 +6194,9 @@
       <c r="J143" s="12"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38596</v>
       </c>
       <c r="B144" s="20"/>
@@ -6206,9 +6215,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38626</v>
       </c>
       <c r="B145" s="20"/>
@@ -6227,9 +6236,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38657</v>
       </c>
       <c r="B146" s="20"/>
@@ -6248,9 +6257,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38687</v>
       </c>
       <c r="B147" s="20" t="s">
@@ -6271,7 +6280,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>78</v>
       </c>
@@ -6289,7 +6298,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>38718</v>
       </c>
@@ -6309,7 +6318,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A149,1)</f>
         <v>38749</v>
@@ -6330,9 +6339,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <f t="shared" ref="A151:A159" si="10">EDATE(A150,1)</f>
+        <f t="shared" ref="A151:A159" si="9">EDATE(A150,1)</f>
         <v>38777</v>
       </c>
       <c r="B151" s="20"/>
@@ -6351,9 +6360,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38808</v>
       </c>
       <c r="B152" s="20"/>
@@ -6372,9 +6381,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38838</v>
       </c>
       <c r="B153" s="20"/>
@@ -6393,9 +6402,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38869</v>
       </c>
       <c r="B154" s="20"/>
@@ -6414,9 +6423,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38899</v>
       </c>
       <c r="B155" s="20"/>
@@ -6435,9 +6444,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38930</v>
       </c>
       <c r="B156" s="20"/>
@@ -6456,9 +6465,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38961</v>
       </c>
       <c r="B157" s="20"/>
@@ -6477,9 +6486,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38991</v>
       </c>
       <c r="B158" s="20"/>
@@ -6498,9 +6507,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>39022</v>
       </c>
       <c r="B159" s="20" t="s">
@@ -6521,7 +6530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>81</v>
@@ -6543,7 +6552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13">
@@ -6561,7 +6570,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A159,1)</f>
         <v>39052</v>
@@ -6582,7 +6591,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="48" t="s">
         <v>83</v>
       </c>
@@ -6600,7 +6609,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>39083</v>
       </c>
@@ -6620,7 +6629,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A164,1)</f>
         <v>39114</v>
@@ -6645,7 +6654,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -6663,7 +6672,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A165,1)</f>
         <v>39142</v>
@@ -6684,9 +6693,9 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <f t="shared" ref="A168:A176" si="11">EDATE(A167,1)</f>
+        <f t="shared" ref="A168:A176" si="10">EDATE(A167,1)</f>
         <v>39173</v>
       </c>
       <c r="B168" s="20"/>
@@ -6705,9 +6714,9 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39203</v>
       </c>
       <c r="B169" s="20"/>
@@ -6726,9 +6735,9 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39234</v>
       </c>
       <c r="B170" s="20"/>
@@ -6747,9 +6756,9 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39264</v>
       </c>
       <c r="B171" s="20"/>
@@ -6768,9 +6777,9 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39295</v>
       </c>
       <c r="B172" s="20"/>
@@ -6789,9 +6798,9 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39326</v>
       </c>
       <c r="B173" s="20"/>
@@ -6810,9 +6819,9 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39356</v>
       </c>
       <c r="B174" s="20"/>
@@ -6831,9 +6840,9 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39387</v>
       </c>
       <c r="B175" s="20"/>
@@ -6852,9 +6861,9 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39417</v>
       </c>
       <c r="B176" s="20"/>
@@ -6873,7 +6882,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>84</v>
       </c>
@@ -6891,7 +6900,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>39448</v>
       </c>
@@ -6911,7 +6920,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A178,1)</f>
         <v>39479</v>
@@ -6932,9 +6941,9 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <f t="shared" ref="A180:A189" si="12">EDATE(A179,1)</f>
+        <f t="shared" ref="A180:A189" si="11">EDATE(A179,1)</f>
         <v>39508</v>
       </c>
       <c r="B180" s="20"/>
@@ -6953,9 +6962,9 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39539</v>
       </c>
       <c r="B181" s="15"/>
@@ -6974,9 +6983,9 @@
       <c r="J181" s="12"/>
       <c r="K181" s="15"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39569</v>
       </c>
       <c r="B182" s="20"/>
@@ -6995,9 +7004,9 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39600</v>
       </c>
       <c r="B183" s="20"/>
@@ -7016,9 +7025,9 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39630</v>
       </c>
       <c r="B184" s="20"/>
@@ -7037,9 +7046,9 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39661</v>
       </c>
       <c r="B185" s="20"/>
@@ -7058,9 +7067,9 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39692</v>
       </c>
       <c r="B186" s="20"/>
@@ -7079,9 +7088,9 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39722</v>
       </c>
       <c r="B187" s="20"/>
@@ -7100,9 +7109,9 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39753</v>
       </c>
       <c r="B188" s="20"/>
@@ -7121,9 +7130,9 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39783</v>
       </c>
       <c r="B189" s="20" t="s">
@@ -7146,7 +7155,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="48" t="s">
         <v>87</v>
       </c>
@@ -7164,7 +7173,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>39814</v>
       </c>
@@ -7184,7 +7193,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A191,1)</f>
         <v>39845</v>
@@ -7205,9 +7214,9 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <f t="shared" ref="A193:A203" si="13">EDATE(A192,1)</f>
+        <f t="shared" ref="A193:A203" si="12">EDATE(A192,1)</f>
         <v>39873</v>
       </c>
       <c r="B193" s="20" t="s">
@@ -7230,7 +7239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13">
@@ -7248,7 +7257,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>39904</v>
@@ -7269,9 +7278,9 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>39934</v>
       </c>
       <c r="B196" s="20"/>
@@ -7290,9 +7299,9 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>39965</v>
       </c>
       <c r="B197" s="20"/>
@@ -7311,9 +7320,9 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>39995</v>
       </c>
       <c r="B198" s="20"/>
@@ -7332,9 +7341,9 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>40026</v>
       </c>
       <c r="B199" s="20"/>
@@ -7353,9 +7362,9 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>40057</v>
       </c>
       <c r="B200" s="20"/>
@@ -7374,9 +7383,9 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>40087</v>
       </c>
       <c r="B201" s="20"/>
@@ -7395,9 +7404,9 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>40118</v>
       </c>
       <c r="B202" s="20"/>
@@ -7416,9 +7425,9 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>40148</v>
       </c>
       <c r="B203" s="20"/>
@@ -7437,7 +7446,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="48" t="s">
         <v>90</v>
       </c>
@@ -7455,7 +7464,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>40179</v>
       </c>
@@ -7477,7 +7486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>93</v>
@@ -7499,7 +7508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13">
@@ -7517,7 +7526,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A205,1)</f>
         <v>40210</v>
@@ -7538,9 +7547,9 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <f t="shared" ref="A209:A217" si="14">EDATE(A208,1)</f>
+        <f t="shared" ref="A209:A217" si="13">EDATE(A208,1)</f>
         <v>40238</v>
       </c>
       <c r="B209" s="20"/>
@@ -7559,9 +7568,9 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40269</v>
       </c>
       <c r="B210" s="20"/>
@@ -7580,9 +7589,9 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40299</v>
       </c>
       <c r="B211" s="20"/>
@@ -7601,7 +7610,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A211,1)</f>
         <v>40330</v>
@@ -7622,9 +7631,9 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40360</v>
       </c>
       <c r="B213" s="20"/>
@@ -7643,9 +7652,9 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40391</v>
       </c>
       <c r="B214" s="20"/>
@@ -7664,9 +7673,9 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40422</v>
       </c>
       <c r="B215" s="20"/>
@@ -7685,9 +7694,9 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40452</v>
       </c>
       <c r="B216" s="20"/>
@@ -7706,9 +7715,9 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40483</v>
       </c>
       <c r="B217" s="20"/>
@@ -7727,7 +7736,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A217,1)</f>
         <v>40513</v>
@@ -7748,7 +7757,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="48" t="s">
         <v>91</v>
       </c>
@@ -7766,7 +7775,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41">
         <v>40544</v>
       </c>
@@ -7786,7 +7795,7 @@
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f>EDATE(A220,1)</f>
         <v>40575</v>
@@ -7807,9 +7816,9 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <f t="shared" ref="A222:A232" si="15">EDATE(A221,1)</f>
+        <f t="shared" ref="A222:A232" si="14">EDATE(A221,1)</f>
         <v>40603</v>
       </c>
       <c r="B222" s="20"/>
@@ -7828,9 +7837,9 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40634</v>
       </c>
       <c r="B223" s="20"/>
@@ -7849,9 +7858,9 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40664</v>
       </c>
       <c r="B224" s="20" t="s">
@@ -7874,7 +7883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="42">
@@ -7892,7 +7901,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>40695</v>
@@ -7913,9 +7922,9 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40725</v>
       </c>
       <c r="B227" s="20"/>
@@ -7934,9 +7943,9 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40756</v>
       </c>
       <c r="B228" s="20"/>
@@ -7955,9 +7964,9 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40787</v>
       </c>
       <c r="B229" s="20"/>
@@ -7976,9 +7985,9 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40817</v>
       </c>
       <c r="B230" s="20"/>
@@ -7997,9 +8006,9 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40848</v>
       </c>
       <c r="B231" s="20"/>
@@ -8018,9 +8027,9 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40878</v>
       </c>
       <c r="B232" s="20"/>
@@ -8039,7 +8048,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="48" t="s">
         <v>97</v>
       </c>
@@ -8057,7 +8066,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>40909</v>
       </c>
@@ -8077,7 +8086,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A234,1)</f>
         <v>40940</v>
@@ -8098,9 +8107,9 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
-        <f t="shared" ref="A236:A244" si="16">EDATE(A235,1)</f>
+        <f t="shared" ref="A236:A244" si="15">EDATE(A235,1)</f>
         <v>40969</v>
       </c>
       <c r="B236" s="20"/>
@@ -8119,9 +8128,9 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41000</v>
       </c>
       <c r="B237" s="20"/>
@@ -8140,9 +8149,9 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41030</v>
       </c>
       <c r="B238" s="20"/>
@@ -8161,9 +8170,9 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41061</v>
       </c>
       <c r="B239" s="20"/>
@@ -8182,9 +8191,9 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41091</v>
       </c>
       <c r="B240" s="20"/>
@@ -8203,9 +8212,9 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41122</v>
       </c>
       <c r="B241" s="20"/>
@@ -8224,9 +8233,9 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41153</v>
       </c>
       <c r="B242" s="20"/>
@@ -8245,9 +8254,9 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41183</v>
       </c>
       <c r="B243" s="20"/>
@@ -8266,9 +8275,9 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41214</v>
       </c>
       <c r="B244" s="20"/>
@@ -8287,7 +8296,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>41244</v>
@@ -8310,7 +8319,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>102</v>
@@ -8332,7 +8341,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>71</v>
@@ -8354,7 +8363,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13">
@@ -8372,7 +8381,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="48" t="s">
         <v>98</v>
       </c>
@@ -8390,7 +8399,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>41275</v>
       </c>
@@ -8410,7 +8419,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>41306</v>
@@ -8431,9 +8440,9 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
-        <f t="shared" ref="A252:A262" si="17">EDATE(A251,1)</f>
+        <f t="shared" ref="A252:A262" si="16">EDATE(A251,1)</f>
         <v>41334</v>
       </c>
       <c r="B252" s="20"/>
@@ -8452,9 +8461,9 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41365</v>
       </c>
       <c r="B253" s="20"/>
@@ -8473,9 +8482,9 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41395</v>
       </c>
       <c r="B254" s="20" t="s">
@@ -8498,7 +8507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -8516,7 +8525,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>41426</v>
@@ -8537,9 +8546,9 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41456</v>
       </c>
       <c r="B257" s="20"/>
@@ -8558,9 +8567,9 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41487</v>
       </c>
       <c r="B258" s="20"/>
@@ -8579,9 +8588,9 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41518</v>
       </c>
       <c r="B259" s="20"/>
@@ -8600,9 +8609,9 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41548</v>
       </c>
       <c r="B260" s="20"/>
@@ -8621,9 +8630,9 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41579</v>
       </c>
       <c r="B261" s="20"/>
@@ -8642,16 +8651,20 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41609</v>
       </c>
-      <c r="B262" s="20"/>
+      <c r="B262" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="C262" s="13">
         <v>1.25</v>
       </c>
-      <c r="D262" s="39"/>
+      <c r="D262" s="39">
+        <v>5</v>
+      </c>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
       <c r="G262" s="13">
@@ -8663,7 +8676,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="48" t="s">
         <v>99</v>
       </c>
@@ -8681,7 +8694,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>41640</v>
       </c>
@@ -8701,7 +8714,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f>EDATE(A264,1)</f>
         <v>41671</v>
@@ -8726,7 +8739,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13">
@@ -8744,7 +8757,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A265,1)</f>
         <v>41699</v>
@@ -8765,9 +8778,9 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
-        <f t="shared" ref="A268:A278" si="18">EDATE(A267,1)</f>
+        <f t="shared" ref="A268:A278" si="17">EDATE(A267,1)</f>
         <v>41730</v>
       </c>
       <c r="B268" s="20" t="s">
@@ -8786,11 +8799,11 @@
       <c r="H268" s="39"/>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="62">
+      <c r="K268" s="50">
         <v>45035</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13">
@@ -8808,7 +8821,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>41760</v>
@@ -8829,9 +8842,9 @@
       <c r="J270" s="12"/>
       <c r="K270" s="15"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41791</v>
       </c>
       <c r="B271" s="20"/>
@@ -8850,9 +8863,9 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41821</v>
       </c>
       <c r="B272" s="20" t="s">
@@ -8875,7 +8888,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -8893,7 +8906,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>41852</v>
@@ -8914,9 +8927,9 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41883</v>
       </c>
       <c r="B275" s="20"/>
@@ -8935,9 +8948,9 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41913</v>
       </c>
       <c r="B276" s="20"/>
@@ -8956,9 +8969,9 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41944</v>
       </c>
       <c r="B277" s="20"/>
@@ -8977,9 +8990,9 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41974</v>
       </c>
       <c r="B278" s="20"/>
@@ -8998,7 +9011,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="48" t="s">
         <v>100</v>
       </c>
@@ -9016,7 +9029,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>42005</v>
       </c>
@@ -9036,7 +9049,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>42036</v>
@@ -9057,9 +9070,9 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
-        <f t="shared" ref="A282:A292" si="19">EDATE(A281,1)</f>
+        <f t="shared" ref="A282:A292" si="18">EDATE(A281,1)</f>
         <v>42064</v>
       </c>
       <c r="B282" s="20"/>
@@ -9078,9 +9091,9 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42095</v>
       </c>
       <c r="B283" s="20"/>
@@ -9099,9 +9112,9 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42125</v>
       </c>
       <c r="B284" s="20"/>
@@ -9120,9 +9133,9 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42156</v>
       </c>
       <c r="B285" s="20"/>
@@ -9141,9 +9154,9 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42186</v>
       </c>
       <c r="B286" s="20" t="s">
@@ -9166,7 +9179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13">
@@ -9184,7 +9197,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>42217</v>
@@ -9205,9 +9218,9 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42248</v>
       </c>
       <c r="B289" s="20"/>
@@ -9226,9 +9239,9 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42278</v>
       </c>
       <c r="B290" s="20"/>
@@ -9247,9 +9260,9 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42309</v>
       </c>
       <c r="B291" s="20"/>
@@ -9268,9 +9281,9 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42339</v>
       </c>
       <c r="B292" s="20"/>
@@ -9289,7 +9302,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="48" t="s">
         <v>113</v>
       </c>
@@ -9307,7 +9320,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>42370</v>
       </c>
@@ -9327,7 +9340,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>42401</v>
@@ -9352,7 +9365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13">
@@ -9370,7 +9383,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A295,1)</f>
         <v>42430</v>
@@ -9391,9 +9404,9 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
-        <f t="shared" ref="A298:A306" si="20">EDATE(A297,1)</f>
+        <f t="shared" ref="A298:A306" si="19">EDATE(A297,1)</f>
         <v>42461</v>
       </c>
       <c r="B298" s="20"/>
@@ -9412,9 +9425,9 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42491</v>
       </c>
       <c r="B299" s="20"/>
@@ -9433,9 +9446,9 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42522</v>
       </c>
       <c r="B300" s="20"/>
@@ -9454,9 +9467,9 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42552</v>
       </c>
       <c r="B301" s="20"/>
@@ -9475,9 +9488,9 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42583</v>
       </c>
       <c r="B302" s="20"/>
@@ -9496,9 +9509,9 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42614</v>
       </c>
       <c r="B303" s="20"/>
@@ -9517,9 +9530,9 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42644</v>
       </c>
       <c r="B304" s="20"/>
@@ -9538,7 +9551,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f>EDATE(A304,1)</f>
         <v>42675</v>
@@ -9559,9 +9572,9 @@
       <c r="J305" s="12"/>
       <c r="K305" s="15"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42705</v>
       </c>
       <c r="B306" s="20"/>
@@ -9580,7 +9593,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="48" t="s">
         <v>116</v>
       </c>
@@ -9598,7 +9611,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>42736</v>
       </c>
@@ -9618,7 +9631,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A308,1)</f>
         <v>42767</v>
@@ -9639,9 +9652,9 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
-        <f t="shared" ref="A310:A321" si="21">EDATE(A309,1)</f>
+        <f t="shared" ref="A310:A321" si="20">EDATE(A309,1)</f>
         <v>42795</v>
       </c>
       <c r="B310" s="20" t="s">
@@ -9664,7 +9677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>120</v>
@@ -9686,7 +9699,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -9704,7 +9717,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>42826</v>
@@ -9725,9 +9738,9 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42856</v>
       </c>
       <c r="B314" s="20"/>
@@ -9746,9 +9759,9 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42887</v>
       </c>
       <c r="B315" s="20"/>
@@ -9767,9 +9780,9 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42917</v>
       </c>
       <c r="B316" s="20"/>
@@ -9788,9 +9801,9 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42948</v>
       </c>
       <c r="B317" s="20"/>
@@ -9809,9 +9822,9 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42979</v>
       </c>
       <c r="B318" s="20"/>
@@ -9830,9 +9843,9 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>43009</v>
       </c>
       <c r="B319" s="20"/>
@@ -9851,9 +9864,9 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>43040</v>
       </c>
       <c r="B320" s="20"/>
@@ -9872,9 +9885,9 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>43070</v>
       </c>
       <c r="B321" s="20" t="s">
@@ -9897,7 +9910,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="48" t="s">
         <v>117</v>
       </c>
@@ -9915,7 +9928,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>43101</v>
       </c>
@@ -9935,7 +9948,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A323,1)</f>
         <v>43132</v>
@@ -9956,9 +9969,9 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
-        <f t="shared" ref="A325:A334" si="22">EDATE(A324,1)</f>
+        <f t="shared" ref="A325:A334" si="21">EDATE(A324,1)</f>
         <v>43160</v>
       </c>
       <c r="B325" s="20"/>
@@ -9977,7 +9990,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f>EDATE(A325,1)</f>
         <v>43191</v>
@@ -9998,9 +10011,9 @@
       <c r="J326" s="12"/>
       <c r="K326" s="15"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43221</v>
       </c>
       <c r="B327" s="20"/>
@@ -10019,9 +10032,9 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43252</v>
       </c>
       <c r="B328" s="20"/>
@@ -10040,9 +10053,9 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43282</v>
       </c>
       <c r="B329" s="20"/>
@@ -10061,9 +10074,9 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43313</v>
       </c>
       <c r="B330" s="20"/>
@@ -10082,9 +10095,9 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43344</v>
       </c>
       <c r="B331" s="20"/>
@@ -10103,9 +10116,9 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43374</v>
       </c>
       <c r="B332" s="20"/>
@@ -10124,9 +10137,9 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43405</v>
       </c>
       <c r="B333" s="20"/>
@@ -10145,9 +10158,9 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43435</v>
       </c>
       <c r="B334" s="20" t="s">
@@ -10170,7 +10183,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="48" t="s">
         <v>122</v>
       </c>
@@ -10188,7 +10201,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>43466</v>
       </c>
@@ -10208,7 +10221,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A336,1)</f>
         <v>43497</v>
@@ -10229,9 +10242,9 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
-        <f t="shared" ref="A338:A348" si="23">EDATE(A337,1)</f>
+        <f t="shared" ref="A338:A347" si="22">EDATE(A337,1)</f>
         <v>43525</v>
       </c>
       <c r="B338" s="20"/>
@@ -10250,9 +10263,9 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43556</v>
       </c>
       <c r="B339" s="20"/>
@@ -10271,9 +10284,9 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43586</v>
       </c>
       <c r="B340" s="20"/>
@@ -10292,9 +10305,9 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43617</v>
       </c>
       <c r="B341" s="20"/>
@@ -10313,9 +10326,9 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43647</v>
       </c>
       <c r="B342" s="20"/>
@@ -10334,9 +10347,9 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43678</v>
       </c>
       <c r="B343" s="20"/>
@@ -10355,9 +10368,9 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43709</v>
       </c>
       <c r="B344" s="20"/>
@@ -10376,9 +10389,9 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43739</v>
       </c>
       <c r="B345" s="20"/>
@@ -10397,9 +10410,9 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43770</v>
       </c>
       <c r="B346" s="20"/>
@@ -10418,9 +10431,9 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43800</v>
       </c>
       <c r="B347" s="20" t="s">
@@ -10443,7 +10456,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="48" t="s">
         <v>123</v>
       </c>
@@ -10461,89 +10474,2317 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
       <c r="B349" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C349" s="13"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H349" s="39"/>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11">
-      <c r="A350" s="40"/>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="40">
+        <v>43862</v>
+      </c>
       <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="39"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H350" s="39"/>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11">
-      <c r="A351" s="40"/>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="40">
+        <v>43891</v>
+      </c>
       <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="39"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11">
-      <c r="A352" s="40"/>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="40">
+        <v>43922</v>
+      </c>
       <c r="B352" s="20"/>
-      <c r="C352" s="13"/>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11">
-      <c r="A353" s="41"/>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="40">
+        <v>43952</v>
+      </c>
       <c r="B353" s="15"/>
-      <c r="C353" s="42"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D353" s="43"/>
       <c r="E353" s="49"/>
       <c r="F353" s="15"/>
-      <c r="G353" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G353" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H353" s="43"/>
       <c r="I353" s="49"/>
       <c r="J353" s="12"/>
       <c r="K353" s="15"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B354" s="20"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H354" s="39"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D359" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B360" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D360" s="39">
+        <v>5</v>
+      </c>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D362" s="39"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H362" s="39"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D365" s="39"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H365" s="39"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D367" s="39"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D368" s="39"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H368" s="39"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D369" s="39"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H369" s="39"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="20"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B370" s="20"/>
+      <c r="C370" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D370" s="39"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H370" s="39"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="20"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D371" s="39"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H371" s="39"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="20"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B372" s="20"/>
+      <c r="C372" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D372" s="39"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="20"/>
+      <c r="G372" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H372" s="39"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="20"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C373" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D373" s="39">
+        <v>5</v>
+      </c>
+      <c r="E373" s="9"/>
+      <c r="F373" s="20"/>
+      <c r="G373" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H373" s="39"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="20"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B374" s="20"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="39"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="20"/>
+      <c r="G374" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H374" s="39"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="20"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B375" s="20"/>
+      <c r="C375" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D375" s="39"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H375" s="39"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="20"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B376" s="20"/>
+      <c r="C376" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D376" s="39"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="20"/>
+      <c r="G376" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H376" s="39"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="20"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B377" s="20"/>
+      <c r="C377" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D377" s="39"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H377" s="39"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="20"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B378" s="20"/>
+      <c r="C378" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D378" s="39"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="20"/>
+      <c r="G378" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H378" s="39"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="20"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B379" s="20"/>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D379" s="39"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H379" s="39"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="20"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D380" s="39"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H380" s="39"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D381" s="39"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H381" s="39"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D382" s="39"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H382" s="39"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B383" s="20"/>
+      <c r="C383" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D383" s="39"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H383" s="39"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D384" s="39"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H384" s="39"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B385" s="20"/>
+      <c r="C385" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D385" s="39"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H385" s="39"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="20"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C386" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D386" s="39">
+        <v>5</v>
+      </c>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H386" s="39"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="39"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="39"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D388" s="39"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H388" s="39"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A389" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D389" s="39"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H389" s="39"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D390" s="39"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H390" s="39"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B391" s="20"/>
+      <c r="C391" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D391" s="39"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H391" s="39"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="20"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B392" s="20"/>
+      <c r="C392" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D392" s="39"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H392" s="39"/>
+      <c r="I392" s="9"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="20"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B393" s="20"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="39"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H393" s="39"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="20"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A394" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B394" s="20"/>
+      <c r="C394" s="13"/>
+      <c r="D394" s="39"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="20"/>
+      <c r="G394" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H394" s="39"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="11"/>
+      <c r="K394" s="20"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A395" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B395" s="20"/>
+      <c r="C395" s="13"/>
+      <c r="D395" s="39"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="20"/>
+      <c r="G395" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H395" s="39"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="11"/>
+      <c r="K395" s="20"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B396" s="20"/>
+      <c r="C396" s="13"/>
+      <c r="D396" s="39"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="20"/>
+      <c r="G396" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H396" s="39"/>
+      <c r="I396" s="9"/>
+      <c r="J396" s="11"/>
+      <c r="K396" s="20"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A397" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B397" s="20"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="39"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="20"/>
+      <c r="G397" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H397" s="39"/>
+      <c r="I397" s="9"/>
+      <c r="J397" s="11"/>
+      <c r="K397" s="20"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A398" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B398" s="20"/>
+      <c r="C398" s="13"/>
+      <c r="D398" s="39"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="20"/>
+      <c r="G398" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H398" s="39"/>
+      <c r="I398" s="9"/>
+      <c r="J398" s="11"/>
+      <c r="K398" s="20"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A399" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B399" s="20"/>
+      <c r="C399" s="13"/>
+      <c r="D399" s="39"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="20"/>
+      <c r="G399" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H399" s="39"/>
+      <c r="I399" s="9"/>
+      <c r="J399" s="11"/>
+      <c r="K399" s="20"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A400" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B400" s="20"/>
+      <c r="C400" s="13"/>
+      <c r="D400" s="39"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="20"/>
+      <c r="G400" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H400" s="39"/>
+      <c r="I400" s="9"/>
+      <c r="J400" s="11"/>
+      <c r="K400" s="20"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A401" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B401" s="20"/>
+      <c r="C401" s="13"/>
+      <c r="D401" s="39"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="20"/>
+      <c r="G401" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H401" s="39"/>
+      <c r="I401" s="9"/>
+      <c r="J401" s="11"/>
+      <c r="K401" s="20"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A402" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B402" s="20"/>
+      <c r="C402" s="13"/>
+      <c r="D402" s="39"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="20"/>
+      <c r="G402" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H402" s="39"/>
+      <c r="I402" s="9"/>
+      <c r="J402" s="11"/>
+      <c r="K402" s="20"/>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A403" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B403" s="20"/>
+      <c r="C403" s="13"/>
+      <c r="D403" s="39"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="20"/>
+      <c r="G403" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H403" s="39"/>
+      <c r="I403" s="9"/>
+      <c r="J403" s="11"/>
+      <c r="K403" s="20"/>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A404" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B404" s="20"/>
+      <c r="C404" s="13"/>
+      <c r="D404" s="39"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="20"/>
+      <c r="G404" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H404" s="39"/>
+      <c r="I404" s="9"/>
+      <c r="J404" s="11"/>
+      <c r="K404" s="20"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A405" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B405" s="20"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="39"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="20"/>
+      <c r="G405" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H405" s="39"/>
+      <c r="I405" s="9"/>
+      <c r="J405" s="11"/>
+      <c r="K405" s="20"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A406" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B406" s="20"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="39"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="20"/>
+      <c r="G406" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H406" s="39"/>
+      <c r="I406" s="9"/>
+      <c r="J406" s="11"/>
+      <c r="K406" s="20"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A407" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B407" s="20"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="39"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="20"/>
+      <c r="G407" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H407" s="39"/>
+      <c r="I407" s="9"/>
+      <c r="J407" s="11"/>
+      <c r="K407" s="20"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B408" s="20"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="39"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="20"/>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H408" s="39"/>
+      <c r="I408" s="9"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="20"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B409" s="20"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="39"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="20"/>
+      <c r="G409" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="39"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="20"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B410" s="20"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="39"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="20"/>
+      <c r="G410" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H410" s="39"/>
+      <c r="I410" s="9"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="20"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B411" s="20"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="39"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="20"/>
+      <c r="G411" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H411" s="39"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="20"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B412" s="20"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="39"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="20"/>
+      <c r="G412" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H412" s="39"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="20"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A413" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B413" s="20"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="39"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="20"/>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H413" s="39"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="20"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B414" s="20"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="39"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="20"/>
+      <c r="G414" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H414" s="39"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="20"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="40">
+        <v>45748</v>
+      </c>
+      <c r="B415" s="20"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="39"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="20"/>
+      <c r="G415" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H415" s="39"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="20"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="40">
+        <v>45778</v>
+      </c>
+      <c r="B416" s="20"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="39"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="39"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="20"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="40">
+        <v>45809</v>
+      </c>
+      <c r="B417" s="20"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="39"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H417" s="39"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="20"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B418" s="20"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="39"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H418" s="39"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="20"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B419" s="20"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="39"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H419" s="39"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="20"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B420" s="20"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="39"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="39"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="20"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="40">
+        <v>45931</v>
+      </c>
+      <c r="B421" s="20"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="39"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H421" s="39"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="20"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="39"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H422" s="39"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="39"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="39"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="20"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="39"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H424" s="39"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="39"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H425" s="39"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B426" s="20"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="39"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H426" s="39"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B427" s="20"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="39"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H427" s="39"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="20"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="40">
+        <v>46143</v>
+      </c>
+      <c r="B428" s="20"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="39"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H428" s="39"/>
+      <c r="I428" s="9"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="20"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B429" s="20"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="39"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="20"/>
+      <c r="G429" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H429" s="39"/>
+      <c r="I429" s="9"/>
+      <c r="J429" s="11"/>
+      <c r="K429" s="20"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" s="40">
+        <v>46204</v>
+      </c>
+      <c r="B430" s="20"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="39"/>
+      <c r="E430" s="9"/>
+      <c r="F430" s="20"/>
+      <c r="G430" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H430" s="39"/>
+      <c r="I430" s="9"/>
+      <c r="J430" s="11"/>
+      <c r="K430" s="20"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" s="40">
+        <v>46235</v>
+      </c>
+      <c r="B431" s="20"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="39"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="20"/>
+      <c r="G431" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H431" s="39"/>
+      <c r="I431" s="9"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="20"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" s="40">
+        <v>46266</v>
+      </c>
+      <c r="B432" s="20"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="39"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="20"/>
+      <c r="G432" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H432" s="39"/>
+      <c r="I432" s="9"/>
+      <c r="J432" s="11"/>
+      <c r="K432" s="20"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B433" s="20"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="39"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="20"/>
+      <c r="G433" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H433" s="39"/>
+      <c r="I433" s="9"/>
+      <c r="J433" s="11"/>
+      <c r="K433" s="20"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A434" s="40">
+        <v>46327</v>
+      </c>
+      <c r="B434" s="20"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="39"/>
+      <c r="E434" s="9"/>
+      <c r="F434" s="20"/>
+      <c r="G434" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H434" s="39"/>
+      <c r="I434" s="9"/>
+      <c r="J434" s="11"/>
+      <c r="K434" s="20"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A435" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B435" s="20"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="39"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H435" s="39"/>
+      <c r="I435" s="9"/>
+      <c r="J435" s="11"/>
+      <c r="K435" s="20"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A436" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B436" s="20"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="39"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H436" s="39"/>
+      <c r="I436" s="9"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="20"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A437" s="40">
+        <v>46419</v>
+      </c>
+      <c r="B437" s="20"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="39"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="20"/>
+      <c r="G437" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H437" s="39"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="20"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A438" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="39"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="39"/>
+      <c r="I438" s="9"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="20"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A439" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B439" s="20"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="39"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H439" s="39"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="20"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A440" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="39"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="39"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A441" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B441" s="20"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="39"/>
+      <c r="E441" s="9"/>
+      <c r="F441" s="20"/>
+      <c r="G441" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H441" s="39"/>
+      <c r="I441" s="9"/>
+      <c r="J441" s="11"/>
+      <c r="K441" s="20"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A442" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B442" s="20"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="39"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H442" s="39"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="20"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A443" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B443" s="20"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="39"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="39"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A444" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="39"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="39"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B445" s="20"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="39"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="39"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A446" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="39"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="39"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A447" s="40">
+        <v>46722</v>
+      </c>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="39"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="39"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A448" s="40">
+        <v>46753</v>
+      </c>
+      <c r="B448" s="20"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="39"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H448" s="39"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="20"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A449" s="40">
+        <v>46784</v>
+      </c>
+      <c r="B449" s="20"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="39"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H449" s="39"/>
+      <c r="I449" s="9"/>
+      <c r="J449" s="11"/>
+      <c r="K449" s="20"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A450" s="40">
+        <v>46813</v>
+      </c>
+      <c r="B450" s="20"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="39"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H450" s="39"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="20"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A451" s="40">
+        <v>46844</v>
+      </c>
+      <c r="B451" s="20"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="39"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H451" s="39"/>
+      <c r="I451" s="9"/>
+      <c r="J451" s="11"/>
+      <c r="K451" s="20"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A452" s="40">
+        <v>46874</v>
+      </c>
+      <c r="B452" s="20"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="39"/>
+      <c r="E452" s="9"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H452" s="39"/>
+      <c r="I452" s="9"/>
+      <c r="J452" s="11"/>
+      <c r="K452" s="20"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A453" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B453" s="20"/>
+      <c r="C453" s="13"/>
+      <c r="D453" s="39"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H453" s="39"/>
+      <c r="I453" s="9"/>
+      <c r="J453" s="11"/>
+      <c r="K453" s="20"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454" s="40">
+        <v>46935</v>
+      </c>
+      <c r="B454" s="20"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="39"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H454" s="39"/>
+      <c r="I454" s="9"/>
+      <c r="J454" s="11"/>
+      <c r="K454" s="20"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A455" s="40">
+        <v>46966</v>
+      </c>
+      <c r="B455" s="20"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="39"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="39"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="11"/>
+      <c r="K455" s="20"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456" s="40">
+        <v>46997</v>
+      </c>
+      <c r="B456" s="20"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="39"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H456" s="39"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="20"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A457" s="40">
+        <v>47027</v>
+      </c>
+      <c r="B457" s="20"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="39"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H457" s="39"/>
+      <c r="I457" s="9"/>
+      <c r="J457" s="11"/>
+      <c r="K457" s="20"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A458" s="40">
+        <v>47058</v>
+      </c>
+      <c r="B458" s="20"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="39"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H458" s="39"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="11"/>
+      <c r="K458" s="20"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A459" s="40">
+        <v>47088</v>
+      </c>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="39"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H459" s="39"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="11"/>
+      <c r="K459" s="20"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460" s="40">
+        <v>47119</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="39"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H460" s="39"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="11"/>
+      <c r="K460" s="20"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A461" s="40">
+        <v>47150</v>
+      </c>
+      <c r="B461" s="20"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="39"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H461" s="39"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="11"/>
+      <c r="K461" s="20"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A462" s="40">
+        <v>47178</v>
+      </c>
+      <c r="B462" s="20"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="39"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H462" s="39"/>
+      <c r="I462" s="9"/>
+      <c r="J462" s="11"/>
+      <c r="K462" s="20"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A463" s="40">
+        <v>47209</v>
+      </c>
+      <c r="B463" s="20"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="39"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H463" s="39"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="11"/>
+      <c r="K463" s="20"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A464" s="40">
+        <v>47239</v>
+      </c>
+      <c r="B464" s="20"/>
+      <c r="C464" s="13"/>
+      <c r="D464" s="39"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H464" s="39"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="20"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" s="40">
+        <v>47270</v>
+      </c>
+      <c r="B465" s="20"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="39"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H465" s="39"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="20"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466" s="40">
+        <v>47300</v>
+      </c>
+      <c r="B466" s="20"/>
+      <c r="C466" s="13"/>
+      <c r="D466" s="39"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="20"/>
+      <c r="G466" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H466" s="39"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="11"/>
+      <c r="K466" s="20"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467" s="40">
+        <v>47331</v>
+      </c>
+      <c r="B467" s="20"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="39"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="20"/>
+      <c r="G467" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H467" s="39"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="11"/>
+      <c r="K467" s="20"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468" s="40">
+        <v>47362</v>
+      </c>
+      <c r="B468" s="20"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="39"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="20"/>
+      <c r="G468" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H468" s="39"/>
+      <c r="I468" s="9"/>
+      <c r="J468" s="11"/>
+      <c r="K468" s="20"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" s="40">
+        <v>47392</v>
+      </c>
+      <c r="B469" s="20"/>
+      <c r="C469" s="13"/>
+      <c r="D469" s="39"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H469" s="39"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="20"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" s="40">
+        <v>47423</v>
+      </c>
+      <c r="B470" s="20"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="39"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H470" s="39"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="11"/>
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="40">
+        <v>47453</v>
+      </c>
+      <c r="B471" s="20"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="39"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H471" s="39"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10560,10 +12801,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10586,15 +12827,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -10608,20 +12849,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10650,13 +12891,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="11">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.58299999999999996</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>2</v>
       </c>
@@ -10670,27 +12907,29 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>2.3940000000000001</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>17</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>16</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10704,14 +12943,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10738,7 +12977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10764,7 +13003,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10790,7 +13029,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10816,7 +13055,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10842,7 +13081,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10868,7 +13107,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10894,7 +13133,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10920,7 +13159,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10940,7 +13179,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10960,7 +13199,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10980,7 +13219,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11001,7 +13240,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11022,7 +13261,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11043,7 +13282,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11064,7 +13303,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11085,7 +13324,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11106,7 +13345,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11127,7 +13366,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11148,7 +13387,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11169,7 +13408,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11190,7 +13429,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11211,7 +13450,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11232,7 +13471,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11253,7 +13492,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11274,7 +13513,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11295,7 +13534,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11316,7 +13555,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11337,7 +13576,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11358,7 +13597,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11379,7 +13618,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11400,7 +13639,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11409,7 +13648,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11418,7 +13657,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11427,7 +13666,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11436,7 +13675,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11445,7 +13684,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11454,7 +13693,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11463,7 +13702,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11472,7 +13711,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11481,7 +13720,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11490,7 +13729,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11499,7 +13738,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11508,7 +13747,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11517,7 +13756,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11526,7 +13765,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11535,7 +13774,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11544,7 +13783,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11553,7 +13792,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11562,7 +13801,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11571,7 +13810,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11580,7 +13819,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11589,7 +13828,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11598,7 +13837,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11607,7 +13846,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11616,7 +13855,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11625,7 +13864,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11634,7 +13873,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11643,7 +13882,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11652,7 +13891,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11661,7 +13900,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
